--- a/monitor_xlsx/20260204.xlsx
+++ b/monitor_xlsx/20260204.xlsx
@@ -43,10 +43,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,8 +94,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -567,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5105.3$</t>
+          <t>5107.3$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+4.11%</t>
+          <t>+4.15%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -593,12 +593,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>31.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>17.81</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+10.16%</t>
+          <t>-1.06%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1213,15 +1213,36 @@
           <t>0050</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59733</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>-15873</v>
+      </c>
       <c r="G4" t="n">
         <v>-168863</v>
       </c>
+      <c r="H4" t="n">
+        <v>2100</v>
+      </c>
       <c r="I4" t="n">
         <v>1629</v>
       </c>
+      <c r="J4" t="n">
+        <v>14722</v>
+      </c>
       <c r="L4" t="n">
         <v>36987</v>
       </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1243,7 +1264,7 @@
         <v>71.86</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1262,12 +1283,18 @@
           <t>S&amp;P黃金正2</t>
         </is>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>8749</v>
+      </c>
       <c r="G5" t="n">
         <v>5527</v>
       </c>
       <c r="I5" t="n">
         <v>-210</v>
       </c>
+      <c r="J5" t="n">
+        <v>12005</v>
+      </c>
       <c r="L5" t="n">
         <v>47175</v>
       </c>
@@ -1311,15 +1338,36 @@
           <t>華城</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>991</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3864</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>-90</v>
+      </c>
       <c r="G6" t="n">
         <v>22</v>
       </c>
+      <c r="H6" t="n">
+        <v>40</v>
+      </c>
       <c r="I6" t="n">
         <v>-278</v>
       </c>
+      <c r="J6" t="n">
+        <v>43</v>
+      </c>
       <c r="L6" t="n">
         <v>13618</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.83</v>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>中性</t>
@@ -1341,7 +1389,7 @@
         <v>937.3200000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>5.73</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1360,15 +1408,36 @@
           <t>華新</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E7" t="n">
+        <v>82827</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>9144</v>
+      </c>
       <c r="G7" t="n">
         <v>9325</v>
       </c>
+      <c r="H7" t="n">
+        <v>-495</v>
+      </c>
       <c r="I7" t="n">
         <v>-15567</v>
       </c>
+      <c r="J7" t="n">
+        <v>431</v>
+      </c>
       <c r="L7" t="n">
         <v>407516</v>
       </c>
+      <c r="N7" t="n">
+        <v>-8.73</v>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>中性</t>
@@ -1390,7 +1459,7 @@
         <v>41.29</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-8.82</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1409,15 +1478,36 @@
           <t>台達電</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7328</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1112</v>
+      </c>
       <c r="G8" t="n">
         <v>-932</v>
       </c>
+      <c r="H8" t="n">
+        <v>79</v>
+      </c>
       <c r="I8" t="n">
         <v>-762</v>
       </c>
+      <c r="J8" t="n">
+        <v>169</v>
+      </c>
       <c r="L8" t="n">
         <v>32845</v>
       </c>
+      <c r="N8" t="n">
+        <v>-1.55</v>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>主力積極賣出</t>
@@ -1439,7 +1529,7 @@
         <v>1159.85</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1458,15 +1548,36 @@
           <t>台積電</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28787</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>-9645</v>
+      </c>
       <c r="G9" t="n">
         <v>-27402</v>
       </c>
+      <c r="H9" t="n">
+        <v>843</v>
+      </c>
       <c r="I9" t="n">
         <v>4257</v>
       </c>
+      <c r="J9" t="n">
+        <v>203</v>
+      </c>
       <c r="L9" t="n">
         <v>103004</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.45</v>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1488,7 +1599,7 @@
         <v>1746.74</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1507,15 +1618,36 @@
           <t>華邦電</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>210453</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>9060</v>
+      </c>
       <c r="G10" t="n">
         <v>-59005</v>
       </c>
+      <c r="H10" t="n">
+        <v>2255</v>
+      </c>
       <c r="I10" t="n">
         <v>3852</v>
       </c>
+      <c r="J10" t="n">
+        <v>1225</v>
+      </c>
       <c r="L10" t="n">
         <v>737181</v>
       </c>
+      <c r="N10" t="n">
+        <v>-10.63</v>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1537,7 +1669,7 @@
         <v>115.61</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-6.15</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1556,15 +1688,36 @@
           <t>台光電</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6197</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1067</v>
+      </c>
       <c r="G11" t="n">
         <v>132</v>
       </c>
+      <c r="H11" t="n">
+        <v>168</v>
+      </c>
       <c r="I11" t="n">
         <v>214</v>
       </c>
+      <c r="J11" t="n">
+        <v>272</v>
+      </c>
       <c r="L11" t="n">
         <v>10070</v>
       </c>
+      <c r="N11" t="n">
+        <v>12.4</v>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>偏多</t>
@@ -1586,7 +1739,7 @@
         <v>1714.46</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>18.99</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1605,15 +1758,36 @@
           <t>世芯-KY</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>3385</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2251</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>188</v>
+      </c>
       <c r="G12" t="n">
         <v>-1786</v>
       </c>
+      <c r="H12" t="n">
+        <v>68</v>
+      </c>
       <c r="I12" t="n">
         <v>-100</v>
       </c>
+      <c r="J12" t="n">
+        <v>89</v>
+      </c>
       <c r="L12" t="n">
         <v>29768</v>
       </c>
+      <c r="N12" t="n">
+        <v>4.31</v>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>主力積極賣出</t>
@@ -1635,7 +1809,7 @@
         <v>3400.14</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1654,15 +1828,36 @@
           <t>臻鼎-KY</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>199</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59496</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>19026</v>
+      </c>
       <c r="G13" t="n">
         <v>-4060</v>
       </c>
+      <c r="H13" t="n">
+        <v>66</v>
+      </c>
       <c r="I13" t="n">
         <v>1746</v>
       </c>
+      <c r="J13" t="n">
+        <v>1511</v>
+      </c>
       <c r="L13" t="n">
         <v>154614</v>
       </c>
+      <c r="N13" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1684,7 +1879,7 @@
         <v>176.29</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>12.88</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1703,15 +1898,36 @@
           <t>光聖</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1146</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>-67</v>
+      </c>
       <c r="G14" t="n">
         <v>2826</v>
       </c>
+      <c r="H14" t="n">
+        <v>-76</v>
+      </c>
       <c r="I14" t="n">
         <v>-82</v>
       </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
       <c r="L14" t="n">
         <v>22736</v>
       </c>
+      <c r="N14" t="n">
+        <v>7.89</v>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>中性</t>
@@ -1733,7 +1949,7 @@
         <v>1475.92</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>26.02</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1752,15 +1968,36 @@
           <t>聯亞</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E15" t="n">
+        <v>700</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>106</v>
+      </c>
       <c r="G15" t="n">
         <v>2896</v>
       </c>
+      <c r="H15" t="n">
+        <v>-57</v>
+      </c>
       <c r="I15" t="n">
         <v>686</v>
       </c>
+      <c r="J15" t="n">
+        <v>19</v>
+      </c>
       <c r="L15" t="n">
         <v>-1493</v>
       </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>主力積極買進</t>
@@ -1782,7 +2019,7 @@
         <v>775.1900000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>46.42</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1801,15 +2038,36 @@
           <t>威剛</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>333</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19216</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>-1311</v>
+      </c>
       <c r="G16" t="n">
         <v>-2862</v>
       </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
       <c r="I16" t="n">
         <v>-1267</v>
       </c>
+      <c r="J16" t="n">
+        <v>457</v>
+      </c>
       <c r="L16" t="n">
         <v>-983</v>
       </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1831,7 +2089,7 @@
         <v>335.49</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1850,15 +2108,33 @@
           <t>台新科</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E17" t="n">
+        <v>973</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>-31</v>
+      </c>
       <c r="G17" t="n">
         <v>1531</v>
       </c>
       <c r="I17" t="n">
         <v>210</v>
       </c>
+      <c r="J17" t="n">
+        <v>50</v>
+      </c>
       <c r="L17" t="n">
         <v>-546</v>
       </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>主力積極買進</t>
@@ -1880,7 +2156,7 @@
         <v>140.16</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1899,15 +2175,36 @@
           <t>華星光</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>328</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20787</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1894</v>
+      </c>
       <c r="G18" t="n">
         <v>808</v>
       </c>
+      <c r="H18" t="n">
+        <v>766</v>
+      </c>
       <c r="I18" t="n">
         <v>6380</v>
       </c>
+      <c r="J18" t="n">
+        <v>92</v>
+      </c>
       <c r="L18" t="n">
         <v>-2547</v>
       </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>主力積極買進</t>
@@ -1929,7 +2226,7 @@
         <v>304.2</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>7.82</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1948,15 +2245,36 @@
           <t>景碩</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78044</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>22764</v>
+      </c>
       <c r="G19" t="n">
         <v>-9648</v>
       </c>
+      <c r="H19" t="n">
+        <v>309</v>
+      </c>
       <c r="I19" t="n">
         <v>9782</v>
       </c>
+      <c r="J19" t="n">
+        <v>1540</v>
+      </c>
       <c r="L19" t="n">
         <v>153627</v>
       </c>
+      <c r="N19" t="n">
+        <v>11.73</v>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>偏空</t>
@@ -1978,7 +2296,7 @@
         <v>216.26</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>25.08</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>

--- a/monitor_xlsx/20260204.xlsx
+++ b/monitor_xlsx/20260204.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>+0.14%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -567,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5107.3$</t>
+          <t>5034.4$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+4.15%</t>
+          <t>+2.67%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -593,12 +593,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -619,12 +619,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7966.33</t>
+          <t>7619.16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.07%</t>
+          <t>-4.36%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>18.64</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-1.06%</t>
+          <t>+3.56%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -709,18 +709,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>53.82億</t>
+          <t>58.21億</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.38億</t>
+          <t>30.26億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>146.91億</t>
+          <t>151.3億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>157.78億</t>
+          <t>162.17億</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -813,28 +813,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-24.38億</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-4.34億</t>
+          <t>-4.08億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-21.68億</t>
+          <t>-20.38億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-18.43億</t>
+          <t>-18.19億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-368.52億</t>
+          <t>-363.83億</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29.38億</t>
+          <t>30.26億</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>146.91億</t>
+          <t>151.3億</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-4.34億</t>
+          <t>-4.08億</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-21.68億</t>
+          <t>-20.38億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-18.43億</t>
+          <t>-18.19億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-368.52億</t>
+          <t>-363.83億</t>
         </is>
       </c>
     </row>
@@ -1237,9 +1237,15 @@
       <c r="J4" t="n">
         <v>14722</v>
       </c>
+      <c r="K4" t="n">
+        <v>7630</v>
+      </c>
       <c r="L4" t="n">
         <v>36987</v>
       </c>
+      <c r="M4" t="n">
+        <v>-4012076</v>
+      </c>
       <c r="N4" t="n">
         <v>-0.14</v>
       </c>
@@ -1255,10 +1261,10 @@
         <v>0.08</v>
       </c>
       <c r="R4" t="n">
-        <v>705379</v>
+        <v>137907000</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="T4" t="n">
         <v>71.86</v>
@@ -1295,9 +1301,15 @@
       <c r="J5" t="n">
         <v>12005</v>
       </c>
+      <c r="K5" t="n">
+        <v>10516</v>
+      </c>
       <c r="L5" t="n">
         <v>47175</v>
       </c>
+      <c r="M5" t="n">
+        <v>-29673</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>中性</t>
@@ -1310,7 +1322,7 @@
         <v>-5.41</v>
       </c>
       <c r="R5" t="n">
-        <v>466034</v>
+        <v>2003000</v>
       </c>
       <c r="S5" t="n">
         <v>14.01</v>
@@ -1362,9 +1374,15 @@
       <c r="J6" t="n">
         <v>43</v>
       </c>
+      <c r="K6" t="n">
+        <v>2821</v>
+      </c>
       <c r="L6" t="n">
         <v>13618</v>
       </c>
+      <c r="M6" t="n">
+        <v>-78691</v>
+      </c>
       <c r="N6" t="n">
         <v>0.83</v>
       </c>
@@ -1380,10 +1398,10 @@
         <v>5.66</v>
       </c>
       <c r="R6" t="n">
-        <v>463077</v>
+        <v>3409000</v>
       </c>
       <c r="S6" t="n">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="T6" t="n">
         <v>937.3200000000001</v>
@@ -1415,7 +1433,7 @@
         <v>2.87</v>
       </c>
       <c r="E7" t="n">
-        <v>82827</v>
+        <v>82828</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>9144</v>
@@ -1432,9 +1450,15 @@
       <c r="J7" t="n">
         <v>431</v>
       </c>
+      <c r="K7" t="n">
+        <v>83558</v>
+      </c>
       <c r="L7" t="n">
         <v>407516</v>
       </c>
+      <c r="M7" t="n">
+        <v>-1105334</v>
+      </c>
       <c r="N7" t="n">
         <v>-8.73</v>
       </c>
@@ -1450,10 +1474,10 @@
         <v>4.58</v>
       </c>
       <c r="R7" t="n">
-        <v>477280</v>
+        <v>176374918</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="T7" t="n">
         <v>41.29</v>
@@ -1485,7 +1509,7 @@
         <v>-0.41</v>
       </c>
       <c r="E8" t="n">
-        <v>7328</v>
+        <v>7342</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>1112</v>
@@ -1502,9 +1526,15 @@
       <c r="J8" t="n">
         <v>169</v>
       </c>
+      <c r="K8" t="n">
+        <v>6152</v>
+      </c>
       <c r="L8" t="n">
         <v>32845</v>
       </c>
+      <c r="M8" t="n">
+        <v>-648628</v>
+      </c>
       <c r="N8" t="n">
         <v>-1.55</v>
       </c>
@@ -1520,10 +1550,10 @@
         <v>-2.92</v>
       </c>
       <c r="R8" t="n">
-        <v>542401</v>
+        <v>2200680</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="T8" t="n">
         <v>1159.85</v>
@@ -1555,7 +1585,7 @@
         <v>-0.83</v>
       </c>
       <c r="E9" t="n">
-        <v>28787</v>
+        <v>29087</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>-9645</v>
@@ -1564,7 +1594,7 @@
         <v>-27402</v>
       </c>
       <c r="H9" t="n">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="I9" t="n">
         <v>4257</v>
@@ -1572,9 +1602,15 @@
       <c r="J9" t="n">
         <v>203</v>
       </c>
+      <c r="K9" t="n">
+        <v>22274</v>
+      </c>
       <c r="L9" t="n">
         <v>103004</v>
       </c>
+      <c r="M9" t="n">
+        <v>-6482877</v>
+      </c>
       <c r="N9" t="n">
         <v>-0.45</v>
       </c>
@@ -1590,13 +1626,13 @@
         <v>9.210000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>297516</v>
+        <v>1556680</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1746.74</v>
+        <v>1746.76</v>
       </c>
       <c r="U9" t="n">
         <v>2.19</v>
@@ -1625,7 +1661,7 @@
         <v>2.84</v>
       </c>
       <c r="E10" t="n">
-        <v>210453</v>
+        <v>210454</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>9060</v>
@@ -1642,9 +1678,15 @@
       <c r="J10" t="n">
         <v>1225</v>
       </c>
+      <c r="K10" t="n">
+        <v>143776</v>
+      </c>
       <c r="L10" t="n">
         <v>737181</v>
       </c>
+      <c r="M10" t="n">
+        <v>-1110204</v>
+      </c>
       <c r="N10" t="n">
         <v>-10.63</v>
       </c>
@@ -1660,10 +1702,10 @@
         <v>-0.99</v>
       </c>
       <c r="R10" t="n">
-        <v>77448</v>
+        <v>31176000</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="T10" t="n">
         <v>115.61</v>
@@ -1695,7 +1737,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>6197</v>
+        <v>6355</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>1067</v>
@@ -1712,9 +1754,15 @@
       <c r="J11" t="n">
         <v>272</v>
       </c>
+      <c r="K11" t="n">
+        <v>2160</v>
+      </c>
       <c r="L11" t="n">
         <v>10070</v>
       </c>
+      <c r="M11" t="n">
+        <v>-89471</v>
+      </c>
       <c r="N11" t="n">
         <v>12.4</v>
       </c>
@@ -1730,16 +1778,16 @@
         <v>-6.23</v>
       </c>
       <c r="R11" t="n">
-        <v>284917</v>
+        <v>1811528</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="T11" t="n">
-        <v>1714.46</v>
+        <v>1714.99</v>
       </c>
       <c r="U11" t="n">
-        <v>18.99</v>
+        <v>18.95</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1765,7 +1813,7 @@
         <v>1.96</v>
       </c>
       <c r="E12" t="n">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="F12" s="6" t="n">
         <v>188</v>
@@ -1782,9 +1830,15 @@
       <c r="J12" t="n">
         <v>89</v>
       </c>
+      <c r="K12" t="n">
+        <v>5915</v>
+      </c>
       <c r="L12" t="n">
         <v>29768</v>
       </c>
+      <c r="M12" t="n">
+        <v>-19723</v>
+      </c>
       <c r="N12" t="n">
         <v>4.31</v>
       </c>
@@ -1800,10 +1854,10 @@
         <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>226892</v>
+        <v>5442503</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
         <v>3400.14</v>
@@ -1852,9 +1906,15 @@
       <c r="J13" t="n">
         <v>1511</v>
       </c>
+      <c r="K13" t="n">
+        <v>28536</v>
+      </c>
       <c r="L13" t="n">
         <v>154614</v>
       </c>
+      <c r="M13" t="n">
+        <v>-267204</v>
+      </c>
       <c r="N13" t="n">
         <v>8.800000000000001</v>
       </c>
@@ -1870,10 +1930,10 @@
         <v>8.52</v>
       </c>
       <c r="R13" t="n">
-        <v>892315</v>
+        <v>22195945</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="T13" t="n">
         <v>176.29</v>
@@ -1914,7 +1974,7 @@
         <v>2826</v>
       </c>
       <c r="H14" t="n">
-        <v>-76</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
         <v>-82</v>
@@ -1922,9 +1982,15 @@
       <c r="J14" t="n">
         <v>6</v>
       </c>
+      <c r="K14" t="n">
+        <v>4429</v>
+      </c>
       <c r="L14" t="n">
         <v>22736</v>
       </c>
+      <c r="M14" t="n">
+        <v>-19211</v>
+      </c>
       <c r="N14" t="n">
         <v>7.89</v>
       </c>
@@ -1940,10 +2006,10 @@
         <v>-2.17</v>
       </c>
       <c r="R14" t="n">
-        <v>907512</v>
+        <v>1682000</v>
       </c>
       <c r="S14" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="T14" t="n">
         <v>1475.92</v>
@@ -1992,9 +2058,15 @@
       <c r="J15" t="n">
         <v>19</v>
       </c>
+      <c r="K15" t="n">
+        <v>-50</v>
+      </c>
       <c r="L15" t="n">
         <v>-1493</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -2010,10 +2082,10 @@
         <v>9.31</v>
       </c>
       <c r="R15" t="n">
-        <v>96734</v>
+        <v>2188400</v>
       </c>
       <c r="S15" t="n">
-        <v>0.14</v>
+        <v>3.13</v>
       </c>
       <c r="T15" t="n">
         <v>775.1900000000001</v>
@@ -2062,9 +2134,15 @@
       <c r="J16" t="n">
         <v>457</v>
       </c>
+      <c r="K16" t="n">
+        <v>2454</v>
+      </c>
       <c r="L16" t="n">
         <v>-983</v>
       </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -2080,10 +2158,10 @@
         <v>1.66</v>
       </c>
       <c r="R16" t="n">
-        <v>710486</v>
+        <v>8566640</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T16" t="n">
         <v>335.49</v>
@@ -2129,9 +2207,15 @@
       <c r="J17" t="n">
         <v>50</v>
       </c>
+      <c r="K17" t="n">
+        <v>22</v>
+      </c>
       <c r="L17" t="n">
         <v>-546</v>
       </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
@@ -2147,10 +2231,10 @@
         <v>8.02</v>
       </c>
       <c r="R17" t="n">
-        <v>268088</v>
+        <v>1887000</v>
       </c>
       <c r="S17" t="n">
-        <v>0.28</v>
+        <v>1.94</v>
       </c>
       <c r="T17" t="n">
         <v>140.16</v>
@@ -2199,9 +2283,15 @@
       <c r="J18" t="n">
         <v>92</v>
       </c>
+      <c r="K18" t="n">
+        <v>198</v>
+      </c>
       <c r="L18" t="n">
         <v>-2547</v>
       </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
@@ -2217,10 +2307,10 @@
         <v>-1.51</v>
       </c>
       <c r="R18" t="n">
-        <v>619737</v>
+        <v>11349993</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03</v>
+        <v>0.55</v>
       </c>
       <c r="T18" t="n">
         <v>304.2</v>
@@ -2269,9 +2359,15 @@
       <c r="J19" t="n">
         <v>1540</v>
       </c>
+      <c r="K19" t="n">
+        <v>25655</v>
+      </c>
       <c r="L19" t="n">
         <v>153627</v>
       </c>
+      <c r="M19" t="n">
+        <v>-112769</v>
+      </c>
       <c r="N19" t="n">
         <v>11.73</v>
       </c>
@@ -2287,10 +2383,10 @@
         <v>-3.98</v>
       </c>
       <c r="R19" t="n">
-        <v>283932</v>
+        <v>10599826</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T19" t="n">
         <v>216.26</v>
